--- a/Graficos/GRAFICOS(pajaro patinete).xlsx
+++ b/Graficos/GRAFICOS(pajaro patinete).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pendrive_Hugo_Poza\APUNTES HUGO POZA USB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Techie17_Mañana\APUNTES HUGO POZA\Excel_ClaseOfimática\Graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D8B0A40-5CAF-437A-9612-A3BD2187CE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91602B54-9863-463F-9183-CBB88672B51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B9522AA8-C684-446B-B33E-1889791D72BD}"/>
   </bookViews>
@@ -160,10 +160,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7086,15 +7086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9060</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>4645</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>161461</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>185620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7124,15 +7124,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>179732</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7491,62 +7491,62 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="J13" s="7"/>
@@ -7843,8 +7843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F9A736-5769-411A-A902-17C3E1B0CDA7}">
   <dimension ref="A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19:S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7854,7 +7854,7 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7872,21 +7872,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008C93B6D09C05E64BB081C0616B6F2E1C" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e77b6ffc63c5e082db6735e630000982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="85662402-fcac-4ea3-b39f-66a5849df0db" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec72b2f84ad92ba60260343ad9fb6194" ns3:_="">
     <xsd:import namespace="85662402-fcac-4ea3-b39f-66a5849df0db"/>
@@ -8030,31 +8015,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46E81778-CA29-4D1A-AAC9-193CA9A9F70C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="85662402-fcac-4ea3-b39f-66a5849df0db"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB1DB8-3312-42BF-BDC5-36A0C5169670}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40AEA1B9-E013-4695-B149-213C2F39B515}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8070,4 +8046,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB1DB8-3312-42BF-BDC5-36A0C5169670}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46E81778-CA29-4D1A-AAC9-193CA9A9F70C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="85662402-fcac-4ea3-b39f-66a5849df0db"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>